--- a/documentatie/gegevens/inventaris.xlsx
+++ b/documentatie/gegevens/inventaris.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagair1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stagair1\Documents\Stage_en_BP_2018\documentatie\gegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Hardware</t>
   </si>
@@ -65,9 +65,6 @@
     <t>10.1.205.1/16</t>
   </si>
   <si>
-    <t>Virtual AD</t>
-  </si>
-  <si>
     <t>IBM x3650 M3 7945G2G</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>10.1.205.2/16</t>
   </si>
   <si>
-    <t>Virtual Fileserver</t>
-  </si>
-  <si>
     <t>10.1.205.11/16</t>
   </si>
   <si>
@@ -105,6 +99,48 @@
   </si>
   <si>
     <t>Netscaler Internal</t>
+  </si>
+  <si>
+    <t>10.1.205.10/16</t>
+  </si>
+  <si>
+    <t>Citrix License Server Virtual Appliance v11.14.0.1_19800</t>
+  </si>
+  <si>
+    <t>Virtual License Server</t>
+  </si>
+  <si>
+    <t>Netscaler Management</t>
+  </si>
+  <si>
+    <t>10.1.205.4/16</t>
+  </si>
+  <si>
+    <t>AAA Virtual Server</t>
+  </si>
+  <si>
+    <t>10.1.205.5/16</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>netscaler</t>
+  </si>
+  <si>
+    <t>ldap</t>
+  </si>
+  <si>
+    <t>Virutal LDAP server</t>
+  </si>
+  <si>
+    <t>Virtual file server</t>
+  </si>
+  <si>
+    <t>fileserver</t>
+  </si>
+  <si>
+    <t>ShareFile</t>
   </si>
 </sst>
 </file>
@@ -444,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -455,14 +491,15 @@
     <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,67 +510,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -542,89 +582,167 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24"/>
@@ -634,6 +752,9 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentatie/gegevens/inventaris.xlsx
+++ b/documentatie/gegevens/inventaris.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Hardware</t>
   </si>
@@ -59,9 +59,6 @@
     <t>172.16.0.35</t>
   </si>
   <si>
-    <t>NetScaler DMZ</t>
-  </si>
-  <si>
     <t>10.1.205.1/16</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>IMM</t>
   </si>
   <si>
-    <t>Netscaler Internal</t>
-  </si>
-  <si>
     <t>10.1.205.10/16</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>10.1.205.4/16</t>
   </si>
   <si>
-    <t>AAA Virtual Server</t>
-  </si>
-  <si>
     <t>10.1.205.5/16</t>
   </si>
   <si>
@@ -128,19 +119,43 @@
     <t>netscaler</t>
   </si>
   <si>
-    <t>ldap</t>
-  </si>
-  <si>
-    <t>Virutal LDAP server</t>
-  </si>
-  <si>
-    <t>Virtual file server</t>
-  </si>
-  <si>
     <t>fileserver</t>
   </si>
   <si>
-    <t>ShareFile</t>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>_SF_AUTHVSERVER</t>
+  </si>
+  <si>
+    <t>_SF_CS_ShareFile</t>
+  </si>
+  <si>
+    <t>Content Switching Virtual Server</t>
+  </si>
+  <si>
+    <t>Authentication Virtual Server</t>
+  </si>
+  <si>
+    <t>Netscaler Internal Subnet IP</t>
+  </si>
+  <si>
+    <t>NetScaler External Subnet IP</t>
+  </si>
+  <si>
+    <t>LDAP server</t>
+  </si>
+  <si>
+    <t>file server</t>
+  </si>
+  <si>
+    <t>172.16.0.46/16</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xenserver</t>
   </si>
 </sst>
 </file>
@@ -483,7 +498,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -491,11 +506,11 @@
     <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -510,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -519,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -527,13 +542,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -542,21 +560,21 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -565,50 +583,50 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -617,24 +635,24 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -643,24 +661,24 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -669,24 +687,24 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -695,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>36</v>
@@ -703,13 +721,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -718,30 +739,62 @@
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">

--- a/documentatie/gegevens/inventaris.xlsx
+++ b/documentatie/gegevens/inventaris.xlsx
@@ -104,9 +104,6 @@
     <t>Virtual License Server</t>
   </si>
   <si>
-    <t>Netscaler Management</t>
-  </si>
-  <si>
     <t>10.1.205.4/16</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Authentication Virtual Server</t>
   </si>
   <si>
-    <t>Netscaler Internal Subnet IP</t>
-  </si>
-  <si>
     <t>NetScaler External Subnet IP</t>
   </si>
   <si>
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>xenserver</t>
+  </si>
+  <si>
+    <t>NetScaler Management</t>
+  </si>
+  <si>
+    <t>NetScaler Internal Subnet IP</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -551,7 +551,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -626,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -690,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -768,7 +768,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -794,7 +794,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">

--- a/documentatie/gegevens/inventaris.xlsx
+++ b/documentatie/gegevens/inventaris.xlsx
@@ -56,9 +56,6 @@
     <t>DMZi</t>
   </si>
   <si>
-    <t>172.16.0.35</t>
-  </si>
-  <si>
     <t>10.1.205.1/16</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>NetScaler Internal Subnet IP</t>
+  </si>
+  <si>
+    <t>172.16.0.32</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -542,16 +542,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -560,21 +560,21 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -583,24 +583,24 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -609,24 +609,24 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -635,24 +635,24 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -661,24 +661,24 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -687,24 +687,24 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -713,24 +713,24 @@
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -739,15 +739,15 @@
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -756,45 +756,45 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">

--- a/documentatie/gegevens/inventaris.xlsx
+++ b/documentatie/gegevens/inventaris.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Hardware</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>172.16.0.32</t>
+  </si>
+  <si>
+    <t>10.1.205.6/16</t>
+  </si>
+  <si>
+    <t>fileserver2</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -713,10 +719,10 @@
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -742,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,25 +756,25 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -779,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>32</v>
@@ -794,11 +800,34 @@
         <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25"/>
@@ -808,6 +837,9 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentatie/gegevens/inventaris.xlsx
+++ b/documentatie/gegevens/inventaris.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Hardware</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>fileserver2</t>
+  </si>
+  <si>
+    <t>10.1.205.7/16</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -693,10 +696,10 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -733,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -745,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -774,7 +777,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,25 +785,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -811,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
@@ -826,11 +829,34 @@
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26"/>
@@ -840,6 +866,9 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentatie/gegevens/inventaris.xlsx
+++ b/documentatie/gegevens/inventaris.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Hardware</t>
   </si>
@@ -86,9 +86,6 @@
     <t>10.1.205.3/16</t>
   </si>
   <si>
-    <t>VIP NetScaler 12</t>
-  </si>
-  <si>
     <t>IMM</t>
   </si>
   <si>
@@ -125,21 +122,9 @@
     <t>_SF_CS_ShareFile</t>
   </si>
   <si>
-    <t>Content Switching Virtual Server</t>
-  </si>
-  <si>
-    <t>Authentication Virtual Server</t>
-  </si>
-  <si>
-    <t>NetScaler External Subnet IP</t>
-  </si>
-  <si>
     <t>LDAP server</t>
   </si>
   <si>
-    <t>file server</t>
-  </si>
-  <si>
     <t>172.16.0.46/16</t>
   </si>
   <si>
@@ -149,12 +134,6 @@
     <t>xenserver</t>
   </si>
   <si>
-    <t>NetScaler Management</t>
-  </si>
-  <si>
-    <t>NetScaler Internal Subnet IP</t>
-  </si>
-  <si>
     <t>172.16.0.32</t>
   </si>
   <si>
@@ -165,13 +144,70 @@
   </si>
   <si>
     <t>10.1.205.7/16</t>
+  </si>
+  <si>
+    <t>172.16.0.25/16</t>
+  </si>
+  <si>
+    <t>StorageZone Connector</t>
+  </si>
+  <si>
+    <t>StorageZone Connector 2</t>
+  </si>
+  <si>
+    <t>10.1.205.8/16</t>
+  </si>
+  <si>
+    <t>10.1.205.9/16</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>netscaler2</t>
+  </si>
+  <si>
+    <t>172.16.0.26/16</t>
+  </si>
+  <si>
+    <t>NetScaler 12</t>
+  </si>
+  <si>
+    <t>NetScaler Management (NetScaler IP)</t>
+  </si>
+  <si>
+    <t>NetScaler Internal Subnet IP (SNIP)</t>
+  </si>
+  <si>
+    <t>NetScaler Management 2 (NetScaler IP)</t>
+  </si>
+  <si>
+    <t>NetScaler Internal Subnet IP 2 (SNIP)</t>
+  </si>
+  <si>
+    <t>Authentication Virtual Server (VIP)</t>
+  </si>
+  <si>
+    <t>Authentication Virtual Server 2 (VIP)</t>
+  </si>
+  <si>
+    <t>Content Switching Virtual Server (VIP)</t>
+  </si>
+  <si>
+    <t>NetScaler External Subnet IP (SNIP)</t>
+  </si>
+  <si>
+    <t>Content Switching Virtual Server 2 (VIP)</t>
+  </si>
+  <si>
+    <t>NetScaler External Subnet IP 2 (SNIP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +226,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -224,6 +266,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,11 +562,11 @@
     <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -545,22 +588,22 @@
       <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -569,21 +612,24 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -594,22 +640,22 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -618,13 +664,13 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -635,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -646,11 +692,11 @@
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -658,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -670,13 +716,13 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -684,190 +730,303 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>51</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>51</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>51</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>51</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
   </sheetData>
